--- a/Listas/Lista11-resolucao.xlsx
+++ b/Listas/Lista11-resolucao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\experimentacao-agricola-unesp-fcav\Listas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36296D0B-38F4-4E92-BE27-55BD354D351F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79F3C4B-2136-48A4-8F48-764C658D7E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{515D6C85-36C7-40AE-A3B3-0E51A53945E9}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -435,40 +435,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -484,20 +455,43 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,7 +809,7 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G14"/>
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,22 +825,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -872,19 +866,19 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="33">
         <v>8.1</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="33">
         <v>10.3</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="33">
         <v>6</v>
       </c>
-      <c r="F3" s="48">
+      <c r="F3" s="33">
         <v>7.2</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="8">
         <f>SUM(C3:F3)</f>
         <v>31.599999999999998</v>
       </c>
@@ -896,19 +890,19 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="33">
         <v>8.6</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="33">
         <v>10.8</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="33">
         <v>10.4</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="33">
         <v>11.6</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="8">
         <f t="shared" ref="G4:G11" si="0">SUM(C4:F4)</f>
         <v>41.4</v>
       </c>
@@ -920,19 +914,19 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="33">
         <v>10.199999999999999</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="33">
         <v>10.4</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="33">
         <v>11.5</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="33">
         <v>11.6</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="8">
         <f t="shared" si="0"/>
         <v>43.7</v>
       </c>
@@ -944,19 +938,19 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="33">
         <v>12.2</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="33">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="33">
         <v>9.1</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="33">
         <v>11</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="8">
         <f t="shared" si="0"/>
         <v>42.1</v>
       </c>
@@ -968,115 +962,115 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="33">
         <v>11</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="33">
         <v>9.5</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="33">
         <v>11.7</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="33">
         <v>13.2</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>45.400000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="33">
         <v>12</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="33">
         <v>12.4</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="33">
         <v>11.6</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="33">
         <v>13</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="A9">
         <v>3</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="33">
         <v>7.9</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="33">
         <v>13.4</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="33">
         <v>12</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="33">
         <v>11.7</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10">
         <v>3</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="33">
         <v>10</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="33">
         <v>14.2</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="33">
         <v>12.2</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="33">
         <v>13.8</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="8">
         <f t="shared" si="0"/>
         <v>50.2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="33">
         <v>12.5</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="33">
         <v>14</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="33">
         <v>13.8</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="33">
         <v>13.4</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="8">
         <f t="shared" si="0"/>
         <v>53.699999999999996</v>
       </c>
@@ -1105,7 +1099,7 @@
         <v>402.1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="F13" t="s">
         <v>17</v>
@@ -1115,7 +1109,7 @@
         <v>4491.2336111111117</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>35</v>
       </c>
@@ -1124,8 +1118,8 @@
         <v>11.169444444444444</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1142,7 +1136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1165,7 +1159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1184,11 +1178,11 @@
         <f>D18/D19</f>
         <v>2.4248129078241876</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1205,21 +1199,21 @@
         <v>1.8837268518517856</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="4">
         <v>35</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="14">
         <f>SUMSQ(C3:F11)-G13</f>
         <v>139.05638888888734</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1228,8 +1222,8 @@
         <v>12.28789217831658</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>0</v>
       </c>
@@ -1239,7 +1233,7 @@
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>36</v>
       </c>
@@ -1249,44 +1243,44 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="34">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="23">
         <v>0.05</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="24">
         <f>_xlfn.F.INV(0.95,B17,B19)</f>
         <v>2.3550814948462078</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="23">
         <v>0.05</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="24">
         <f>_xlfn.F.INV(0.95,B18,B19)</f>
         <v>3.0087865704473615</v>
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="36">
+    <row r="26" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="25">
         <v>0.01</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="26">
         <f>_xlfn.F.INV(0.99,B17,B19)</f>
         <v>3.3628671199494815</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="25">
         <v>0.01</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="26">
         <f>_xlfn.F.INV(0.99,B18,B19)</f>
         <v>4.7180508074957999</v>
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1295,7 +1289,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1314,21 +1308,21 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="13" t="s">
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="37" t="s">
         <v>41</v>
       </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="6">
         <v>1</v>
       </c>
@@ -1338,7 +1332,7 @@
       <c r="D33" s="6">
         <v>3</v>
       </c>
-      <c r="E33" s="14"/>
+      <c r="E33" s="38"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1348,15 +1342,17 @@
       <c r="B34">
         <v>31.599999999999998</v>
       </c>
-      <c r="C34">
-        <v>42.1</v>
-      </c>
-      <c r="D34">
-        <v>45</v>
+      <c r="C34" s="8">
+        <f>G4</f>
+        <v>41.4</v>
+      </c>
+      <c r="D34" s="8">
+        <f>G5</f>
+        <v>43.7</v>
       </c>
       <c r="E34">
         <f>SUM(B34:D34)</f>
-        <v>118.7</v>
+        <v>116.7</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1364,18 +1360,21 @@
       <c r="A35">
         <v>2</v>
       </c>
-      <c r="B35">
-        <v>41.4</v>
-      </c>
-      <c r="C35">
+      <c r="B35" s="8">
+        <f>G6</f>
+        <v>42.1</v>
+      </c>
+      <c r="C35" s="8">
+        <f>G7</f>
         <v>45.400000000000006</v>
       </c>
-      <c r="D35">
-        <v>50.2</v>
+      <c r="D35" s="8">
+        <f>G8</f>
+        <v>49</v>
       </c>
       <c r="E35">
         <f t="shared" ref="E35:E36" si="2">SUM(B35:D35)</f>
-        <v>137</v>
+        <v>136.5</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1383,18 +1382,21 @@
       <c r="A36">
         <v>3</v>
       </c>
-      <c r="B36">
-        <v>43.7</v>
-      </c>
-      <c r="C36">
-        <v>49</v>
-      </c>
-      <c r="D36">
+      <c r="B36" s="8">
+        <f>G9</f>
+        <v>45</v>
+      </c>
+      <c r="C36" s="8">
+        <f>G10</f>
+        <v>50.2</v>
+      </c>
+      <c r="D36" s="8">
+        <f>G11</f>
         <v>53.699999999999996</v>
       </c>
       <c r="E36">
         <f t="shared" si="2"/>
-        <v>146.4</v>
+        <v>148.9</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1404,15 +1406,15 @@
       </c>
       <c r="B37" s="6">
         <f>SUM(B34:B36)</f>
-        <v>116.7</v>
+        <v>118.7</v>
       </c>
       <c r="C37" s="6">
         <f t="shared" ref="C37:E37" si="3">SUM(C34:C36)</f>
-        <v>136.5</v>
+        <v>137</v>
       </c>
       <c r="D37" s="6">
         <f t="shared" si="3"/>
-        <v>148.9</v>
+        <v>146.4</v>
       </c>
       <c r="E37" s="6">
         <f t="shared" si="3"/>
@@ -1459,7 +1461,7 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>13.703055555555693</v>
+        <v>13.7030555555557</v>
       </c>
       <c r="D41">
         <v>4.5676851851852307</v>
@@ -1467,7 +1469,7 @@
       <c r="E41" s="9">
         <v>2.4248129078241876</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G41" s="1"/>
@@ -1481,15 +1483,15 @@
       </c>
       <c r="C42">
         <f>SUMSQ(E34:E36)/3/4-E38</f>
-        <v>33.070555555555984</v>
+        <v>43.962222222222408</v>
       </c>
       <c r="D42">
         <f>C42/B42</f>
-        <v>16.535277777777992</v>
+        <v>21.981111111111204</v>
       </c>
       <c r="E42">
         <f>D42/D46</f>
-        <v>8.7779593742707931</v>
+        <v>11.668948228615426</v>
       </c>
       <c r="F42" t="s">
         <v>18</v>
@@ -1505,15 +1507,15 @@
       </c>
       <c r="C43">
         <f>SUMSQ(B37:D37)/3/4-E38</f>
-        <v>43.962222222222408</v>
+        <v>33.070555555555984</v>
       </c>
       <c r="D43">
         <f>C43/B43</f>
-        <v>21.981111111111204</v>
+        <v>16.535277777777992</v>
       </c>
       <c r="E43">
         <f>D43/D46</f>
-        <v>11.668948228615426</v>
+        <v>8.7779593742707931</v>
       </c>
       <c r="F43" t="s">
         <v>18</v>
@@ -1539,7 +1541,7 @@
         <f>D44/D46</f>
         <v>0.41289307789662366</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G44" s="1"/>
@@ -1548,16 +1550,16 @@
       <c r="A45" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="16">
         <v>80.143888888888796</v>
       </c>
       <c r="D45" s="10">
         <v>10.017986111111099</v>
       </c>
-      <c r="E45" s="28">
+      <c r="E45" s="17">
         <v>5.3181734396698666</v>
       </c>
       <c r="F45" t="s">
@@ -1573,7 +1575,7 @@
         <v>24</v>
       </c>
       <c r="C46" s="8">
-        <v>45.209444444442852</v>
+        <v>45.209444444442902</v>
       </c>
       <c r="D46">
         <v>1.8837268518517856</v>
@@ -1587,8 +1589,8 @@
       <c r="B47" s="4">
         <v>35</v>
       </c>
-      <c r="C47" s="23">
-        <v>139.05638888888734</v>
+      <c r="C47" s="14">
+        <v>139.056388888887</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="5"/>
@@ -1635,47 +1637,47 @@
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="34">
+      <c r="A52" s="23">
         <v>0.05</v>
       </c>
-      <c r="B52" s="35">
+      <c r="B52" s="24">
         <f>_xlfn.F.INV(0.95,B42,B46)</f>
         <v>3.4028261053501945</v>
       </c>
-      <c r="D52" s="34">
+      <c r="D52" s="23">
         <v>0.05</v>
       </c>
-      <c r="E52" s="35">
+      <c r="E52" s="24">
         <f>_xlfn.F.INV(0.95,B43,B46)</f>
         <v>3.4028261053501945</v>
       </c>
-      <c r="G52" s="34">
+      <c r="G52" s="23">
         <v>0.05</v>
       </c>
-      <c r="H52" s="35">
+      <c r="H52" s="24">
         <f>_xlfn.F.INV(0.95,B44,B46)</f>
         <v>2.7762892892514772</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="36">
+      <c r="A53" s="25">
         <v>0.01</v>
       </c>
-      <c r="B53" s="37">
+      <c r="B53" s="26">
         <f>_xlfn.F.INV(0.99,B42,B46)</f>
         <v>5.6135912114648336</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53" s="25">
         <v>0.01</v>
       </c>
-      <c r="E53" s="37">
+      <c r="E53" s="26">
         <f>_xlfn.F.INV(0.99,B43,B46)</f>
         <v>5.6135912114648336</v>
       </c>
-      <c r="G53" s="36">
+      <c r="G53" s="25">
         <v>0.01</v>
       </c>
-      <c r="H53" s="37">
+      <c r="H53" s="26">
         <f>_xlfn.F.INV(0.99,B44,B46)</f>
         <v>4.2184452673562669</v>
       </c>
@@ -1714,81 +1716,81 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="43"/>
-      <c r="C59" s="18"/>
-      <c r="E59" s="17" t="s">
+      <c r="B59" s="42"/>
+      <c r="C59" s="43"/>
+      <c r="E59" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="43"/>
-      <c r="G59" s="18"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="43"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="44" t="s">
+      <c r="B60" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="30" t="s">
+      <c r="E60" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F60" s="44" t="s">
+      <c r="F60" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G60" s="31" t="s">
+      <c r="G60" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="30">
+      <c r="A61" s="19">
         <v>1</v>
       </c>
-      <c r="B61" s="38">
+      <c r="B61" s="27">
         <f>E34/12</f>
-        <v>9.8916666666666675</v>
-      </c>
-      <c r="C61" s="39">
+        <v>9.7249999999999996</v>
+      </c>
+      <c r="C61" s="28">
         <f>SQRT($D$46/12)</f>
         <v>0.39620353059294594</v>
       </c>
-      <c r="E61" s="30">
+      <c r="E61" s="19">
         <v>1</v>
       </c>
-      <c r="F61" s="38">
+      <c r="F61" s="27">
         <f>B37/12</f>
-        <v>9.7249999999999996</v>
-      </c>
-      <c r="G61" s="39">
+        <v>9.8916666666666675</v>
+      </c>
+      <c r="G61" s="28">
         <f>SQRT($D$46/12)</f>
         <v>0.39620353059294594</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="32">
+      <c r="A62" s="21">
         <v>2</v>
       </c>
-      <c r="B62" s="40">
-        <f t="shared" ref="B62:B63" si="4">E35/12</f>
-        <v>11.416666666666666</v>
-      </c>
-      <c r="C62" s="41">
+      <c r="B62" s="1">
+        <f>E35/12</f>
+        <v>11.375</v>
+      </c>
+      <c r="C62" s="29">
         <f>SQRT($D$46/12)</f>
         <v>0.39620353059294594</v>
       </c>
-      <c r="E62" s="32">
+      <c r="E62" s="21">
         <v>2</v>
       </c>
-      <c r="F62" s="40">
+      <c r="F62" s="1">
         <f>C37/12</f>
-        <v>11.375</v>
-      </c>
-      <c r="G62" s="41">
+        <v>11.416666666666666</v>
+      </c>
+      <c r="G62" s="29">
         <f>SQRT($D$46/12)</f>
         <v>0.39620353059294594</v>
       </c>
@@ -1797,9 +1799,9 @@
       <c r="A63" s="11">
         <v>3</v>
       </c>
-      <c r="B63" s="42">
-        <f t="shared" si="4"/>
-        <v>12.200000000000001</v>
+      <c r="B63" s="30">
+        <f>E36/12</f>
+        <v>12.408333333333333</v>
       </c>
       <c r="C63" s="12">
         <f>SQRT($D$46/12)</f>
@@ -1808,9 +1810,9 @@
       <c r="E63" s="11">
         <v>3</v>
       </c>
-      <c r="F63" s="42">
+      <c r="F63" s="30">
         <f>D37/12</f>
-        <v>12.408333333333333</v>
+        <v>12.200000000000001</v>
       </c>
       <c r="G63" s="12">
         <f>SQRT($D$46/12)</f>
@@ -1819,30 +1821,30 @@
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="45" t="s">
+      <c r="C65" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C66" s="32" t="s">
+      <c r="C66" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D66" s="33">
+      <c r="D66" s="22">
         <v>3.53</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="32" t="s">
+      <c r="C67" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D67" s="41">
+      <c r="D67" s="29">
         <f>C61</f>
         <v>0.39620353059294594</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="46" t="s">
+      <c r="C68" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D68" s="5">
@@ -1852,74 +1854,78 @@
     </row>
     <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="43"/>
-      <c r="C70" s="18"/>
-      <c r="E70" s="17" t="s">
+      <c r="B70" s="42"/>
+      <c r="C70" s="43"/>
+      <c r="E70" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="F70" s="43"/>
-      <c r="G70" s="18"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="43"/>
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="44" t="s">
+      <c r="B71" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="30" t="s">
+      <c r="E71" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F71" s="44" t="s">
+      <c r="F71" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G71" s="31" t="s">
+      <c r="G71" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="30">
+      <c r="A72" s="19">
         <v>3</v>
       </c>
-      <c r="B72" s="38">
+      <c r="B72" s="27">
+        <f>B63</f>
+        <v>12.408333333333333</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="19">
+        <v>3</v>
+      </c>
+      <c r="F72" s="27">
+        <f>F63</f>
         <v>12.200000000000001</v>
       </c>
-      <c r="C72" s="39" t="s">
+      <c r="G72" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E72" s="30">
-        <v>3</v>
-      </c>
-      <c r="F72" s="38">
-        <v>12.408333333333333</v>
-      </c>
-      <c r="G72" s="39" t="s">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="21">
+        <v>2</v>
+      </c>
+      <c r="B73" s="1">
+        <f>B62</f>
+        <v>11.375</v>
+      </c>
+      <c r="C73" s="29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="32">
+      <c r="E73" s="21">
         <v>2</v>
       </c>
-      <c r="B73" s="40">
+      <c r="F73" s="1">
+        <f>F62</f>
         <v>11.416666666666666</v>
       </c>
-      <c r="C73" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="E73" s="32">
-        <v>2</v>
-      </c>
-      <c r="F73" s="40">
-        <v>11.375</v>
-      </c>
-      <c r="G73" s="41" t="s">
+      <c r="G73" s="29" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1927,8 +1933,9 @@
       <c r="A74" s="11">
         <v>1</v>
       </c>
-      <c r="B74" s="42">
-        <v>9.8916666666666675</v>
+      <c r="B74" s="30">
+        <f>B61</f>
+        <v>9.7249999999999996</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>28</v>
@@ -1936,8 +1943,9 @@
       <c r="E74" s="11">
         <v>1</v>
       </c>
-      <c r="F74" s="42">
-        <v>9.7249999999999996</v>
+      <c r="F74" s="30">
+        <f>F61</f>
+        <v>9.8916666666666675</v>
       </c>
       <c r="G74" s="12" t="s">
         <v>28</v>
@@ -1949,9 +1957,9 @@
       </c>
       <c r="B76" s="1">
         <f>B72-B73</f>
-        <v>0.78333333333333499</v>
-      </c>
-      <c r="C76" s="47" t="s">
+        <v>1.0333333333333332</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E76" t="s">
@@ -1959,9 +1967,9 @@
       </c>
       <c r="F76" s="1">
         <f>F72-F73</f>
-        <v>1.0333333333333332</v>
-      </c>
-      <c r="G76" s="47" t="s">
+        <v>0.78333333333333499</v>
+      </c>
+      <c r="G76" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1971,9 +1979,9 @@
       </c>
       <c r="B77" s="1">
         <f>B72-B74</f>
-        <v>2.3083333333333336</v>
-      </c>
-      <c r="C77" s="47" t="s">
+        <v>2.6833333333333336</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E77" t="s">
@@ -1981,9 +1989,9 @@
       </c>
       <c r="F77" s="1">
         <f>F72-F74</f>
-        <v>2.6833333333333336</v>
-      </c>
-      <c r="G77" s="47" t="s">
+        <v>2.3083333333333336</v>
+      </c>
+      <c r="G77" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1993,9 +2001,9 @@
       </c>
       <c r="B78" s="1">
         <f>B73-B74</f>
-        <v>1.5249999999999986</v>
-      </c>
-      <c r="C78" s="47" t="s">
+        <v>1.6500000000000004</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E78" t="s">
@@ -2003,9 +2011,9 @@
       </c>
       <c r="F78" s="1">
         <f>F73-F74</f>
-        <v>1.6500000000000004</v>
-      </c>
-      <c r="G78" s="47" t="s">
+        <v>1.5249999999999986</v>
+      </c>
+      <c r="G78" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2014,15 +2022,15 @@
     <sortCondition descending="1" ref="F72:F74"/>
   </sortState>
   <mergeCells count="9">
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="E70:G70"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="E70:G70"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
